--- a/lab2/GS.xlsx
+++ b/lab2/GS.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,37 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <strike val="0"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50AB91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF106B51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD00000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -42,12 +63,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF106B51"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF106B51"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF106B51"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF106B51"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,17 +628,367 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="3.333333333333333" customWidth="1" min="2" max="2"/>
+    <col width="3.333333333333333" customWidth="1" min="3" max="3"/>
+    <col width="3.333333333333333" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
-          <t>NO SOLUTION!</t>
+          <t>Емкостная сложность</t>
         </is>
       </c>
-    </row>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Временная сложность</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Длина пути</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>17234</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>8232</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="B3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="B4" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="12" t="inlineStr"/>
+      <c r="C7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1"/>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="B12" s="15" t="inlineStr"/>
+      <c r="C12" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1"/>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="B15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="B16" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="inlineStr"/>
+      <c r="D16" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="B19" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="18" t="inlineStr"/>
+      <c r="D19" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="B20" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="B23" s="12" t="inlineStr"/>
+      <c r="C23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="B24" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="B27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="B28" s="15" t="inlineStr"/>
+      <c r="C28" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1"/>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="B31" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="B32" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17" t="inlineStr"/>
+      <c r="D32" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1"/>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="1">
+      <c r="B35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18" t="inlineStr"/>
+      <c r="D35" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="1">
+      <c r="B36" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="18" customHeight="1"/>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A34:A36"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>